--- a/immowelt_price_guide/data/train_recent_add.xlsx
+++ b/immowelt_price_guide/data/train_recent_add.xlsx
@@ -512,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU124"/>
+  <dimension ref="A1:AU123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16107,7 +16107,7 @@
     </row>
     <row r="110" spans="1:47">
       <c r="A110">
-        <v>70.87</v>
+        <v>56.02</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -16134,7 +16134,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -16245,7 +16245,7 @@
         <v>0</v>
       </c>
       <c r="AU110">
-        <v>1181.21</v>
+        <v>532.1900000000001</v>
       </c>
     </row>
     <row r="111" spans="1:47">
@@ -16393,10 +16393,10 @@
     </row>
     <row r="112" spans="1:47">
       <c r="A112">
-        <v>81.31999999999999</v>
+        <v>49.95</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -16411,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -16531,12 +16531,12 @@
         <v>0</v>
       </c>
       <c r="AU112">
-        <v>1183.37</v>
+        <v>474.53</v>
       </c>
     </row>
     <row r="113" spans="1:47">
       <c r="A113">
-        <v>56.02</v>
+        <v>70.87</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -16563,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -16674,12 +16674,12 @@
         <v>0</v>
       </c>
       <c r="AU113">
-        <v>532.1900000000001</v>
+        <v>1181.21</v>
       </c>
     </row>
     <row r="114" spans="1:47">
       <c r="A114">
-        <v>49.95</v>
+        <v>58.42</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -16817,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="AU114">
-        <v>474.53</v>
+        <v>554.99</v>
       </c>
     </row>
     <row r="115" spans="1:47">
@@ -16965,10 +16965,10 @@
     </row>
     <row r="116" spans="1:47">
       <c r="A116">
-        <v>58.42</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -17103,24 +17103,24 @@
         <v>0</v>
       </c>
       <c r="AU116">
-        <v>554.99</v>
+        <v>1183.37</v>
       </c>
     </row>
     <row r="117" spans="1:47">
       <c r="A117">
-        <v>101.95</v>
+        <v>123.36</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -17129,19 +17129,19 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117">
         <v>0</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -17153,10 +17153,10 @@
         <v>0</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117">
         <v>1</v>
@@ -17165,10 +17165,10 @@
         <v>0</v>
       </c>
       <c r="T117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V117">
         <v>0</v>
@@ -17195,10 +17195,10 @@
         <v>0</v>
       </c>
       <c r="AD117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -17246,7 +17246,7 @@
         <v>0</v>
       </c>
       <c r="AU117">
-        <v>1250</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="118" spans="1:47">
@@ -17394,13 +17394,13 @@
     </row>
     <row r="119" spans="1:47">
       <c r="A119">
-        <v>103</v>
+        <v>101.95</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -17436,16 +17436,16 @@
         <v>0</v>
       </c>
       <c r="O119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -17457,7 +17457,7 @@
         <v>0</v>
       </c>
       <c r="V119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W119">
         <v>1</v>
@@ -17481,10 +17481,10 @@
         <v>0</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF119">
         <v>0</v>
@@ -17532,21 +17532,21 @@
         <v>0</v>
       </c>
       <c r="AU119">
-        <v>1100</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="120" spans="1:47">
       <c r="A120">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -17558,7 +17558,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -17573,16 +17573,16 @@
         <v>1</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120">
         <v>0</v>
       </c>
       <c r="O120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -17597,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="U120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V120">
         <v>0</v>
@@ -17618,7 +17618,7 @@
         <v>0</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="AM120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN120">
         <v>0</v>
@@ -17675,45 +17675,45 @@
         <v>0</v>
       </c>
       <c r="AU120">
-        <v>924</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="121" spans="1:47">
       <c r="A121">
-        <v>123.36</v>
+        <v>82.2</v>
       </c>
       <c r="B121">
         <v>3</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121">
         <v>0</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -17725,28 +17725,28 @@
         <v>0</v>
       </c>
       <c r="P121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
         <v>1</v>
       </c>
       <c r="R121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S121">
         <v>0</v>
       </c>
       <c r="T121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V121">
         <v>0</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X121">
         <v>0</v>
@@ -17770,7 +17770,7 @@
         <v>0</v>
       </c>
       <c r="AE121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF121">
         <v>0</v>
@@ -17815,27 +17815,27 @@
         <v>0</v>
       </c>
       <c r="AT121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU121">
-        <v>1720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="122" spans="1:47">
       <c r="A122">
-        <v>82.2</v>
+        <v>195</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -17844,7 +17844,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -17859,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -17868,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="P122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -17886,10 +17886,10 @@
         <v>0</v>
       </c>
       <c r="V122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X122">
         <v>0</v>
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="AH122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI122">
         <v>0</v>
@@ -17958,27 +17958,27 @@
         <v>0</v>
       </c>
       <c r="AT122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU122">
-        <v>715</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="123" spans="1:47">
       <c r="A123">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B123">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -17987,7 +17987,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -17999,22 +17999,22 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
         <v>0</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -18026,10 +18026,10 @@
         <v>0</v>
       </c>
       <c r="U123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W123">
         <v>1</v>
@@ -18056,7 +18056,7 @@
         <v>0</v>
       </c>
       <c r="AE123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF123">
         <v>0</v>
@@ -18080,7 +18080,7 @@
         <v>0</v>
       </c>
       <c r="AM123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN123">
         <v>0</v>
@@ -18104,150 +18104,7 @@
         <v>0</v>
       </c>
       <c r="AU123">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="124" spans="1:47">
-      <c r="A124">
-        <v>195</v>
-      </c>
-      <c r="B124">
-        <v>6</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-      <c r="P124">
-        <v>1</v>
-      </c>
-      <c r="Q124">
-        <v>1</v>
-      </c>
-      <c r="R124">
-        <v>0</v>
-      </c>
-      <c r="S124">
-        <v>0</v>
-      </c>
-      <c r="T124">
-        <v>0</v>
-      </c>
-      <c r="U124">
-        <v>0</v>
-      </c>
-      <c r="V124">
-        <v>1</v>
-      </c>
-      <c r="W124">
-        <v>1</v>
-      </c>
-      <c r="X124">
-        <v>0</v>
-      </c>
-      <c r="Y124">
-        <v>0</v>
-      </c>
-      <c r="Z124">
-        <v>0</v>
-      </c>
-      <c r="AA124">
-        <v>0</v>
-      </c>
-      <c r="AB124">
-        <v>0</v>
-      </c>
-      <c r="AC124">
-        <v>0</v>
-      </c>
-      <c r="AD124">
-        <v>0</v>
-      </c>
-      <c r="AE124">
-        <v>0</v>
-      </c>
-      <c r="AF124">
-        <v>0</v>
-      </c>
-      <c r="AG124">
-        <v>0</v>
-      </c>
-      <c r="AH124">
-        <v>1</v>
-      </c>
-      <c r="AI124">
-        <v>0</v>
-      </c>
-      <c r="AJ124">
-        <v>0</v>
-      </c>
-      <c r="AK124">
-        <v>0</v>
-      </c>
-      <c r="AL124">
-        <v>0</v>
-      </c>
-      <c r="AM124">
-        <v>0</v>
-      </c>
-      <c r="AN124">
-        <v>0</v>
-      </c>
-      <c r="AO124">
-        <v>0</v>
-      </c>
-      <c r="AP124">
-        <v>0</v>
-      </c>
-      <c r="AQ124">
-        <v>0</v>
-      </c>
-      <c r="AR124">
-        <v>0</v>
-      </c>
-      <c r="AS124">
-        <v>0</v>
-      </c>
-      <c r="AT124">
-        <v>0</v>
-      </c>
-      <c r="AU124">
-        <v>2880</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>

--- a/immowelt_price_guide/data/train_recent_add.xlsx
+++ b/immowelt_price_guide/data/train_recent_add.xlsx
@@ -16107,10 +16107,10 @@
     </row>
     <row r="110" spans="1:47">
       <c r="A110">
-        <v>56.02</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -16134,7 +16134,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -16245,21 +16245,21 @@
         <v>0</v>
       </c>
       <c r="AU110">
-        <v>532.1900000000001</v>
+        <v>1183.37</v>
       </c>
     </row>
     <row r="111" spans="1:47">
       <c r="A111">
-        <v>79</v>
+        <v>58.42</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -16268,7 +16268,7 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -16277,13 +16277,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -16298,7 +16298,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -16316,16 +16316,16 @@
         <v>0</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X111">
         <v>0</v>
       </c>
       <c r="Y111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA111">
         <v>0</v>
@@ -16388,12 +16388,12 @@
         <v>0</v>
       </c>
       <c r="AU111">
-        <v>950</v>
+        <v>554.99</v>
       </c>
     </row>
     <row r="112" spans="1:47">
       <c r="A112">
-        <v>49.95</v>
+        <v>56.02</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AU112">
-        <v>474.53</v>
+        <v>532.1900000000001</v>
       </c>
     </row>
     <row r="113" spans="1:47">
@@ -16679,7 +16679,7 @@
     </row>
     <row r="114" spans="1:47">
       <c r="A114">
-        <v>58.42</v>
+        <v>59.68</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -16712,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -16817,18 +16817,18 @@
         <v>0</v>
       </c>
       <c r="AU114">
-        <v>554.99</v>
+        <v>566.96</v>
       </c>
     </row>
     <row r="115" spans="1:47">
       <c r="A115">
-        <v>59.68</v>
+        <v>65</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -16840,7 +16840,7 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -16849,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -16864,16 +16864,16 @@
         <v>0</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -16888,7 +16888,7 @@
         <v>0</v>
       </c>
       <c r="W115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X115">
         <v>0</v>
@@ -16897,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
         <v>0</v>
@@ -16909,7 +16909,7 @@
         <v>0</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE115">
         <v>0</v>
@@ -16960,48 +16960,48 @@
         <v>0</v>
       </c>
       <c r="AU115">
-        <v>566.96</v>
+        <v>750</v>
       </c>
     </row>
     <row r="116" spans="1:47">
       <c r="A116">
-        <v>81.31999999999999</v>
+        <v>195</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>0</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -17010,10 +17010,10 @@
         <v>0</v>
       </c>
       <c r="P116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R116">
         <v>0</v>
@@ -17028,10 +17028,10 @@
         <v>0</v>
       </c>
       <c r="V116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X116">
         <v>0</v>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
         <v>0</v>
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="AH116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI116">
         <v>0</v>
@@ -17103,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="AU116">
-        <v>1183.37</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="117" spans="1:47">
@@ -17251,13 +17251,13 @@
     </row>
     <row r="118" spans="1:47">
       <c r="A118">
-        <v>65</v>
+        <v>49.95</v>
       </c>
       <c r="B118">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -17284,7 +17284,7 @@
         <v>0</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -17293,16 +17293,16 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -17317,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X118">
         <v>0</v>
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA118">
         <v>0</v>
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="AD118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE118">
         <v>0</v>
@@ -17389,24 +17389,24 @@
         <v>0</v>
       </c>
       <c r="AU118">
-        <v>750</v>
+        <v>474.53</v>
       </c>
     </row>
     <row r="119" spans="1:47">
       <c r="A119">
-        <v>101.95</v>
+        <v>93</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -17415,7 +17415,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -17427,10 +17427,10 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -17439,13 +17439,13 @@
         <v>0</v>
       </c>
       <c r="P119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
         <v>0</v>
       </c>
       <c r="R119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -17454,7 +17454,7 @@
         <v>0</v>
       </c>
       <c r="U119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V119">
         <v>0</v>
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="AD119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE119">
         <v>0</v>
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="AM119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN119">
         <v>0</v>
@@ -17532,24 +17532,24 @@
         <v>0</v>
       </c>
       <c r="AU119">
-        <v>1250</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="120" spans="1:47">
       <c r="A120">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B120">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -17558,7 +17558,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -17570,22 +17570,22 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
         <v>0</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -17597,10 +17597,10 @@
         <v>0</v>
       </c>
       <c r="U120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W120">
         <v>1</v>
@@ -17627,7 +17627,7 @@
         <v>0</v>
       </c>
       <c r="AE120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="AM120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN120">
         <v>0</v>
@@ -17675,12 +17675,12 @@
         <v>0</v>
       </c>
       <c r="AU120">
-        <v>1290</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="121" spans="1:47">
       <c r="A121">
-        <v>82.2</v>
+        <v>79</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -17689,7 +17689,7 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -17698,7 +17698,7 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -17746,13 +17746,13 @@
         <v>0</v>
       </c>
       <c r="W121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X121">
         <v>0</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z121">
         <v>0</v>
@@ -17815,27 +17815,27 @@
         <v>0</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU121">
-        <v>715</v>
+        <v>950</v>
       </c>
     </row>
     <row r="122" spans="1:47">
       <c r="A122">
-        <v>195</v>
+        <v>82.2</v>
       </c>
       <c r="B122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -17844,7 +17844,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -17859,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -17868,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="P122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -17886,10 +17886,10 @@
         <v>0</v>
       </c>
       <c r="V122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X122">
         <v>0</v>
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="AH122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI122">
         <v>0</v>
@@ -17958,30 +17958,30 @@
         <v>0</v>
       </c>
       <c r="AT122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU122">
-        <v>2880</v>
+        <v>715</v>
       </c>
     </row>
     <row r="123" spans="1:47">
       <c r="A123">
-        <v>103</v>
+        <v>153.3</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -17990,16 +17990,16 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -18008,28 +18008,28 @@
         <v>0</v>
       </c>
       <c r="O123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123">
         <v>1</v>
       </c>
       <c r="R123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S123">
         <v>0</v>
       </c>
       <c r="T123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U123">
         <v>0</v>
       </c>
       <c r="V123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W123">
         <v>1</v>
@@ -18038,7 +18038,7 @@
         <v>0</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z123">
         <v>0</v>
@@ -18056,7 +18056,7 @@
         <v>0</v>
       </c>
       <c r="AE123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF123">
         <v>0</v>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="AU123">
-        <v>1100</v>
+        <v>1700</v>
       </c>
     </row>
   </sheetData>

--- a/immowelt_price_guide/data/train_recent_add.xlsx
+++ b/immowelt_price_guide/data/train_recent_add.xlsx
@@ -512,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU123"/>
+  <dimension ref="A1:AU120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16107,16 +16107,16 @@
     </row>
     <row r="110" spans="1:47">
       <c r="A110">
-        <v>81.31999999999999</v>
+        <v>58</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -16134,13 +16134,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -16173,16 +16173,16 @@
         <v>0</v>
       </c>
       <c r="W110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X110">
         <v>0</v>
       </c>
       <c r="Y110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
         <v>0</v>
@@ -16245,15 +16245,15 @@
         <v>0</v>
       </c>
       <c r="AU110">
-        <v>1183.37</v>
+        <v>700</v>
       </c>
     </row>
     <row r="111" spans="1:47">
       <c r="A111">
-        <v>58.42</v>
+        <v>102.34</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -16271,13 +16271,13 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -16301,10 +16301,10 @@
         <v>0</v>
       </c>
       <c r="R111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T111">
         <v>0</v>
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="W111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X111">
         <v>0</v>
@@ -16388,21 +16388,21 @@
         <v>0</v>
       </c>
       <c r="AU111">
-        <v>554.99</v>
+        <v>1483.93</v>
       </c>
     </row>
     <row r="112" spans="1:47">
       <c r="A112">
-        <v>56.02</v>
+        <v>225.09</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -16417,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -16432,7 +16432,7 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O112">
         <v>0</v>
@@ -16441,25 +16441,25 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R112">
         <v>0</v>
       </c>
       <c r="S112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V112">
         <v>0</v>
       </c>
       <c r="W112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X112">
         <v>0</v>
@@ -16468,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
         <v>0</v>
@@ -16480,7 +16480,7 @@
         <v>0</v>
       </c>
       <c r="AD112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE112">
         <v>0</v>
@@ -16531,15 +16531,15 @@
         <v>0</v>
       </c>
       <c r="AU112">
-        <v>532.1900000000001</v>
+        <v>3601.44</v>
       </c>
     </row>
     <row r="113" spans="1:47">
       <c r="A113">
-        <v>70.87</v>
+        <v>26</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -16563,13 +16563,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -16674,12 +16674,12 @@
         <v>0</v>
       </c>
       <c r="AU113">
-        <v>1181.21</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="1:47">
       <c r="A114">
-        <v>59.68</v>
+        <v>47</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -16697,16 +16697,16 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -16724,13 +16724,13 @@
         <v>0</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -16745,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="W114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X114">
         <v>0</v>
@@ -16754,13 +16754,13 @@
         <v>0</v>
       </c>
       <c r="Z114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
         <v>0</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -16817,18 +16817,18 @@
         <v>0</v>
       </c>
       <c r="AU114">
-        <v>566.96</v>
+        <v>700</v>
       </c>
     </row>
     <row r="115" spans="1:47">
       <c r="A115">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B115">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="O115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -16873,7 +16873,7 @@
         <v>1</v>
       </c>
       <c r="R115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -16888,7 +16888,7 @@
         <v>0</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X115">
         <v>0</v>
@@ -16960,15 +16960,15 @@
         <v>0</v>
       </c>
       <c r="AU115">
-        <v>750</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="116" spans="1:47">
       <c r="A116">
-        <v>195</v>
+        <v>123.98</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -16977,7 +16977,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -16986,10 +16986,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -16998,19 +16998,19 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116">
         <v>0</v>
       </c>
       <c r="P116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
         <v>1</v>
@@ -17019,16 +17019,16 @@
         <v>0</v>
       </c>
       <c r="S116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116">
         <v>0</v>
       </c>
       <c r="U116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W116">
         <v>1</v>
@@ -17052,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="AD116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE116">
         <v>0</v>
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="AH116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI116">
         <v>0</v>
@@ -17103,39 +17103,39 @@
         <v>0</v>
       </c>
       <c r="AU116">
-        <v>2880</v>
+        <v>1797.71</v>
       </c>
     </row>
     <row r="117" spans="1:47">
       <c r="A117">
-        <v>123.36</v>
+        <v>218.16</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -17147,7 +17147,7 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -17159,13 +17159,13 @@
         <v>1</v>
       </c>
       <c r="R117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U117">
         <v>1</v>
@@ -17195,10 +17195,10 @@
         <v>0</v>
       </c>
       <c r="AD117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -17246,15 +17246,15 @@
         <v>0</v>
       </c>
       <c r="AU117">
-        <v>1720</v>
+        <v>3163.32</v>
       </c>
     </row>
     <row r="118" spans="1:47">
       <c r="A118">
-        <v>49.95</v>
+        <v>37</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -17302,7 +17302,7 @@
         <v>0</v>
       </c>
       <c r="R118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -17323,10 +17323,10 @@
         <v>0</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
         <v>0</v>
@@ -17389,15 +17389,15 @@
         <v>0</v>
       </c>
       <c r="AU118">
-        <v>474.53</v>
+        <v>950</v>
       </c>
     </row>
     <row r="119" spans="1:47">
       <c r="A119">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B119">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -17406,16 +17406,16 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -17430,7 +17430,7 @@
         <v>1</v>
       </c>
       <c r="M119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -17439,13 +17439,13 @@
         <v>0</v>
       </c>
       <c r="P119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
         <v>0</v>
       </c>
       <c r="R119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -17454,13 +17454,13 @@
         <v>0</v>
       </c>
       <c r="U119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V119">
         <v>0</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X119">
         <v>0</v>
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA119">
         <v>0</v>
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="AM119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN119">
         <v>0</v>
@@ -17532,36 +17532,36 @@
         <v>0</v>
       </c>
       <c r="AU119">
-        <v>1290</v>
+        <v>649</v>
       </c>
     </row>
     <row r="120" spans="1:47">
       <c r="A120">
-        <v>103</v>
+        <v>178.29</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -17570,19 +17570,19 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120">
         <v>0</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -17591,16 +17591,16 @@
         <v>0</v>
       </c>
       <c r="S120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W120">
         <v>1</v>
@@ -17624,10 +17624,10 @@
         <v>0</v>
       </c>
       <c r="AD120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -17675,436 +17675,7 @@
         <v>0</v>
       </c>
       <c r="AU120">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:47">
-      <c r="A121">
-        <v>79</v>
-      </c>
-      <c r="B121">
-        <v>3</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="N121">
-        <v>0</v>
-      </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>1</v>
-      </c>
-      <c r="R121">
-        <v>0</v>
-      </c>
-      <c r="S121">
-        <v>0</v>
-      </c>
-      <c r="T121">
-        <v>0</v>
-      </c>
-      <c r="U121">
-        <v>0</v>
-      </c>
-      <c r="V121">
-        <v>0</v>
-      </c>
-      <c r="W121">
-        <v>1</v>
-      </c>
-      <c r="X121">
-        <v>0</v>
-      </c>
-      <c r="Y121">
-        <v>1</v>
-      </c>
-      <c r="Z121">
-        <v>0</v>
-      </c>
-      <c r="AA121">
-        <v>0</v>
-      </c>
-      <c r="AB121">
-        <v>0</v>
-      </c>
-      <c r="AC121">
-        <v>0</v>
-      </c>
-      <c r="AD121">
-        <v>0</v>
-      </c>
-      <c r="AE121">
-        <v>0</v>
-      </c>
-      <c r="AF121">
-        <v>0</v>
-      </c>
-      <c r="AG121">
-        <v>0</v>
-      </c>
-      <c r="AH121">
-        <v>0</v>
-      </c>
-      <c r="AI121">
-        <v>0</v>
-      </c>
-      <c r="AJ121">
-        <v>0</v>
-      </c>
-      <c r="AK121">
-        <v>0</v>
-      </c>
-      <c r="AL121">
-        <v>0</v>
-      </c>
-      <c r="AM121">
-        <v>0</v>
-      </c>
-      <c r="AN121">
-        <v>0</v>
-      </c>
-      <c r="AO121">
-        <v>0</v>
-      </c>
-      <c r="AP121">
-        <v>0</v>
-      </c>
-      <c r="AQ121">
-        <v>0</v>
-      </c>
-      <c r="AR121">
-        <v>0</v>
-      </c>
-      <c r="AS121">
-        <v>0</v>
-      </c>
-      <c r="AT121">
-        <v>0</v>
-      </c>
-      <c r="AU121">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="122" spans="1:47">
-      <c r="A122">
-        <v>82.2</v>
-      </c>
-      <c r="B122">
-        <v>3</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>1</v>
-      </c>
-      <c r="R122">
-        <v>0</v>
-      </c>
-      <c r="S122">
-        <v>0</v>
-      </c>
-      <c r="T122">
-        <v>0</v>
-      </c>
-      <c r="U122">
-        <v>0</v>
-      </c>
-      <c r="V122">
-        <v>0</v>
-      </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-      <c r="X122">
-        <v>0</v>
-      </c>
-      <c r="Y122">
-        <v>0</v>
-      </c>
-      <c r="Z122">
-        <v>0</v>
-      </c>
-      <c r="AA122">
-        <v>0</v>
-      </c>
-      <c r="AB122">
-        <v>0</v>
-      </c>
-      <c r="AC122">
-        <v>0</v>
-      </c>
-      <c r="AD122">
-        <v>0</v>
-      </c>
-      <c r="AE122">
-        <v>0</v>
-      </c>
-      <c r="AF122">
-        <v>0</v>
-      </c>
-      <c r="AG122">
-        <v>0</v>
-      </c>
-      <c r="AH122">
-        <v>0</v>
-      </c>
-      <c r="AI122">
-        <v>0</v>
-      </c>
-      <c r="AJ122">
-        <v>0</v>
-      </c>
-      <c r="AK122">
-        <v>0</v>
-      </c>
-      <c r="AL122">
-        <v>0</v>
-      </c>
-      <c r="AM122">
-        <v>0</v>
-      </c>
-      <c r="AN122">
-        <v>0</v>
-      </c>
-      <c r="AO122">
-        <v>0</v>
-      </c>
-      <c r="AP122">
-        <v>0</v>
-      </c>
-      <c r="AQ122">
-        <v>0</v>
-      </c>
-      <c r="AR122">
-        <v>0</v>
-      </c>
-      <c r="AS122">
-        <v>0</v>
-      </c>
-      <c r="AT122">
-        <v>1</v>
-      </c>
-      <c r="AU122">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="123" spans="1:47">
-      <c r="A123">
-        <v>153.3</v>
-      </c>
-      <c r="B123">
-        <v>3</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-      <c r="J123">
-        <v>1</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>1</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-      <c r="P123">
-        <v>1</v>
-      </c>
-      <c r="Q123">
-        <v>1</v>
-      </c>
-      <c r="R123">
-        <v>1</v>
-      </c>
-      <c r="S123">
-        <v>0</v>
-      </c>
-      <c r="T123">
-        <v>1</v>
-      </c>
-      <c r="U123">
-        <v>0</v>
-      </c>
-      <c r="V123">
-        <v>0</v>
-      </c>
-      <c r="W123">
-        <v>1</v>
-      </c>
-      <c r="X123">
-        <v>0</v>
-      </c>
-      <c r="Y123">
-        <v>1</v>
-      </c>
-      <c r="Z123">
-        <v>0</v>
-      </c>
-      <c r="AA123">
-        <v>0</v>
-      </c>
-      <c r="AB123">
-        <v>0</v>
-      </c>
-      <c r="AC123">
-        <v>0</v>
-      </c>
-      <c r="AD123">
-        <v>0</v>
-      </c>
-      <c r="AE123">
-        <v>0</v>
-      </c>
-      <c r="AF123">
-        <v>0</v>
-      </c>
-      <c r="AG123">
-        <v>0</v>
-      </c>
-      <c r="AH123">
-        <v>0</v>
-      </c>
-      <c r="AI123">
-        <v>0</v>
-      </c>
-      <c r="AJ123">
-        <v>0</v>
-      </c>
-      <c r="AK123">
-        <v>0</v>
-      </c>
-      <c r="AL123">
-        <v>0</v>
-      </c>
-      <c r="AM123">
-        <v>0</v>
-      </c>
-      <c r="AN123">
-        <v>0</v>
-      </c>
-      <c r="AO123">
-        <v>0</v>
-      </c>
-      <c r="AP123">
-        <v>0</v>
-      </c>
-      <c r="AQ123">
-        <v>0</v>
-      </c>
-      <c r="AR123">
-        <v>0</v>
-      </c>
-      <c r="AS123">
-        <v>0</v>
-      </c>
-      <c r="AT123">
-        <v>0</v>
-      </c>
-      <c r="AU123">
-        <v>1700</v>
+        <v>3030.93</v>
       </c>
     </row>
   </sheetData>

--- a/immowelt_price_guide/data/train_recent_add.xlsx
+++ b/immowelt_price_guide/data/train_recent_add.xlsx
@@ -16107,7 +16107,7 @@
     </row>
     <row r="110" spans="1:47">
       <c r="A110">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -16116,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -16125,10 +16125,10 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -16152,13 +16152,13 @@
         <v>0</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110">
         <v>0</v>
       </c>
       <c r="R110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -16179,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="Y110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z110">
         <v>0</v>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -16250,16 +16250,16 @@
     </row>
     <row r="111" spans="1:47">
       <c r="A111">
-        <v>102.34</v>
+        <v>58</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -16271,10 +16271,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -16301,10 +16301,10 @@
         <v>0</v>
       </c>
       <c r="R111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T111">
         <v>0</v>
@@ -16322,10 +16322,10 @@
         <v>0</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
         <v>0</v>
@@ -16388,21 +16388,21 @@
         <v>0</v>
       </c>
       <c r="AU111">
-        <v>1483.93</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112" spans="1:47">
       <c r="A112">
-        <v>225.09</v>
+        <v>60</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -16411,13 +16411,13 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -16426,13 +16426,13 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O112">
         <v>0</v>
@@ -16447,19 +16447,19 @@
         <v>0</v>
       </c>
       <c r="S112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T112">
         <v>0</v>
       </c>
       <c r="U112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V112">
         <v>0</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X112">
         <v>0</v>
@@ -16531,15 +16531,15 @@
         <v>0</v>
       </c>
       <c r="AU112">
-        <v>3601.44</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="113" spans="1:47">
       <c r="A113">
-        <v>26</v>
+        <v>102.34</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -16554,13 +16554,13 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -16569,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -16590,7 +16590,7 @@
         <v>1</v>
       </c>
       <c r="S113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -16602,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="W113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X113">
         <v>0</v>
@@ -16674,15 +16674,15 @@
         <v>0</v>
       </c>
       <c r="AU113">
-        <v>415</v>
+        <v>1483.93</v>
       </c>
     </row>
     <row r="114" spans="1:47">
       <c r="A114">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -16700,7 +16700,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -16724,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="P114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -16745,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X114">
         <v>0</v>
@@ -16754,13 +16754,13 @@
         <v>0</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA114">
         <v>0</v>
       </c>
       <c r="AB114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -16817,21 +16817,21 @@
         <v>0</v>
       </c>
       <c r="AU114">
-        <v>700</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="1:47">
       <c r="A115">
-        <v>60</v>
+        <v>123.98</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -16840,13 +16840,13 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -16855,13 +16855,13 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -16876,19 +16876,19 @@
         <v>0</v>
       </c>
       <c r="S115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T115">
         <v>0</v>
       </c>
       <c r="U115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V115">
         <v>0</v>
       </c>
       <c r="W115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X115">
         <v>0</v>
@@ -16960,15 +16960,15 @@
         <v>0</v>
       </c>
       <c r="AU115">
-        <v>1125</v>
+        <v>1797.71</v>
       </c>
     </row>
     <row r="116" spans="1:47">
       <c r="A116">
-        <v>123.98</v>
+        <v>225.09</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -17103,15 +17103,15 @@
         <v>0</v>
       </c>
       <c r="AU116">
-        <v>1797.71</v>
+        <v>3601.44</v>
       </c>
     </row>
     <row r="117" spans="1:47">
       <c r="A117">
-        <v>218.16</v>
+        <v>37</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -17132,7 +17132,7 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -17147,40 +17147,40 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117">
         <v>0</v>
       </c>
       <c r="P117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T117">
         <v>0</v>
       </c>
       <c r="U117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V117">
         <v>0</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X117">
         <v>0</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z117">
         <v>0</v>
@@ -17195,7 +17195,7 @@
         <v>0</v>
       </c>
       <c r="AD117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE117">
         <v>0</v>
@@ -17246,15 +17246,15 @@
         <v>0</v>
       </c>
       <c r="AU117">
-        <v>3163.32</v>
+        <v>950</v>
       </c>
     </row>
     <row r="118" spans="1:47">
       <c r="A118">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B118">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -17323,10 +17323,10 @@
         <v>0</v>
       </c>
       <c r="Y118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA118">
         <v>0</v>
@@ -17389,15 +17389,15 @@
         <v>0</v>
       </c>
       <c r="AU118">
-        <v>950</v>
+        <v>649</v>
       </c>
     </row>
     <row r="119" spans="1:47">
       <c r="A119">
-        <v>21</v>
+        <v>218.16</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -17418,7 +17418,7 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -17433,34 +17433,34 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119">
         <v>0</v>
       </c>
       <c r="P119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T119">
         <v>0</v>
       </c>
       <c r="U119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V119">
         <v>0</v>
       </c>
       <c r="W119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X119">
         <v>0</v>
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA119">
         <v>0</v>
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE119">
         <v>0</v>
@@ -17532,7 +17532,7 @@
         <v>0</v>
       </c>
       <c r="AU119">
-        <v>649</v>
+        <v>3163.32</v>
       </c>
     </row>
     <row r="120" spans="1:47">

--- a/immowelt_price_guide/data/train_recent_add.xlsx
+++ b/immowelt_price_guide/data/train_recent_add.xlsx
@@ -512,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU120"/>
+  <dimension ref="A1:AU138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16107,10 +16107,10 @@
     </row>
     <row r="110" spans="1:47">
       <c r="A110">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110">
         <v>1</v>
@@ -16173,13 +16173,13 @@
         <v>0</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X110">
         <v>0</v>
       </c>
       <c r="Y110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z110">
         <v>0</v>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="AB110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -16245,15 +16245,15 @@
         <v>0</v>
       </c>
       <c r="AU110">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:47">
       <c r="A111">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -16268,7 +16268,7 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -16298,10 +16298,10 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -16322,10 +16322,10 @@
         <v>0</v>
       </c>
       <c r="Y111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA111">
         <v>0</v>
@@ -16388,15 +16388,15 @@
         <v>0</v>
       </c>
       <c r="AU111">
-        <v>700</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="112" spans="1:47">
       <c r="A112">
-        <v>60</v>
+        <v>9.5</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -16438,13 +16438,13 @@
         <v>0</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q112">
         <v>1</v>
       </c>
       <c r="R112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -16465,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="Y112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z112">
         <v>0</v>
@@ -16480,7 +16480,7 @@
         <v>0</v>
       </c>
       <c r="AD112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE112">
         <v>0</v>
@@ -16531,15 +16531,15 @@
         <v>0</v>
       </c>
       <c r="AU112">
-        <v>1125</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:47">
       <c r="A113">
-        <v>102.34</v>
+        <v>108</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -16554,10 +16554,10 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -16569,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -16581,16 +16581,16 @@
         <v>0</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113">
         <v>1</v>
       </c>
       <c r="S113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -16599,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="V113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W113">
         <v>1</v>
@@ -16611,7 +16611,7 @@
         <v>0</v>
       </c>
       <c r="Z113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
         <v>0</v>
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="AD113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE113">
         <v>0</v>
@@ -16674,21 +16674,21 @@
         <v>0</v>
       </c>
       <c r="AU113">
-        <v>1483.93</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="114" spans="1:47">
       <c r="A114">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -16697,7 +16697,7 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -16721,13 +16721,13 @@
         <v>0</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R114">
         <v>1</v>
@@ -16745,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="W114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X114">
         <v>0</v>
@@ -16754,13 +16754,13 @@
         <v>0</v>
       </c>
       <c r="Z114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
         <v>0</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -16817,21 +16817,21 @@
         <v>0</v>
       </c>
       <c r="AU114">
-        <v>415</v>
+        <v>910</v>
       </c>
     </row>
     <row r="115" spans="1:47">
       <c r="A115">
-        <v>123.98</v>
+        <v>16</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -16840,13 +16840,13 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -16855,46 +16855,46 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O115">
         <v>0</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
         <v>1</v>
       </c>
       <c r="R115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T115">
         <v>0</v>
       </c>
       <c r="U115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V115">
         <v>0</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X115">
         <v>0</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z115">
         <v>0</v>
@@ -16909,7 +16909,7 @@
         <v>0</v>
       </c>
       <c r="AD115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE115">
         <v>0</v>
@@ -16960,15 +16960,15 @@
         <v>0</v>
       </c>
       <c r="AU115">
-        <v>1797.71</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:47">
       <c r="A116">
-        <v>225.09</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -16977,19 +16977,19 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -17004,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -17019,7 +17019,7 @@
         <v>0</v>
       </c>
       <c r="S116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA116">
         <v>0</v>
@@ -17052,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="AD116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE116">
         <v>0</v>
@@ -17103,15 +17103,15 @@
         <v>0</v>
       </c>
       <c r="AU116">
-        <v>3601.44</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="117" spans="1:47">
       <c r="A117">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B117">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -17126,7 +17126,7 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -17141,7 +17141,7 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -17153,10 +17153,10 @@
         <v>0</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117">
         <v>1</v>
@@ -17246,15 +17246,15 @@
         <v>0</v>
       </c>
       <c r="AU117">
-        <v>950</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:47">
       <c r="A118">
-        <v>21</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -17272,10 +17272,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -17296,7 +17296,7 @@
         <v>0</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -17305,7 +17305,7 @@
         <v>1</v>
       </c>
       <c r="S118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T118">
         <v>0</v>
@@ -17317,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X118">
         <v>0</v>
@@ -17389,15 +17389,15 @@
         <v>0</v>
       </c>
       <c r="AU118">
-        <v>649</v>
+        <v>1036.9</v>
       </c>
     </row>
     <row r="119" spans="1:47">
       <c r="A119">
-        <v>218.16</v>
+        <v>68</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -17412,13 +17412,13 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -17427,7 +17427,7 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -17442,13 +17442,13 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R119">
         <v>0</v>
       </c>
       <c r="S119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T119">
         <v>0</v>
@@ -17478,10 +17478,10 @@
         <v>0</v>
       </c>
       <c r="AC119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE119">
         <v>0</v>
@@ -17532,150 +17532,2724 @@
         <v>0</v>
       </c>
       <c r="AU119">
-        <v>3163.32</v>
+        <v>750</v>
       </c>
     </row>
     <row r="120" spans="1:47">
       <c r="A120">
+        <v>77</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>1</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>1</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>0</v>
+      </c>
+      <c r="AQ120">
+        <v>0</v>
+      </c>
+      <c r="AR120">
+        <v>0</v>
+      </c>
+      <c r="AS120">
+        <v>0</v>
+      </c>
+      <c r="AT120">
+        <v>0</v>
+      </c>
+      <c r="AU120">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="121" spans="1:47">
+      <c r="A121">
+        <v>80</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>1</v>
+      </c>
+      <c r="W121">
+        <v>1</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>1</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>0</v>
+      </c>
+      <c r="AR121">
+        <v>0</v>
+      </c>
+      <c r="AS121">
+        <v>0</v>
+      </c>
+      <c r="AT121">
+        <v>0</v>
+      </c>
+      <c r="AU121">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="122" spans="1:47">
+      <c r="A122">
+        <v>105</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>1</v>
+      </c>
+      <c r="X122">
+        <v>1</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>0</v>
+      </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
+      <c r="AQ122">
+        <v>0</v>
+      </c>
+      <c r="AR122">
+        <v>0</v>
+      </c>
+      <c r="AS122">
+        <v>0</v>
+      </c>
+      <c r="AT122">
+        <v>0</v>
+      </c>
+      <c r="AU122">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="123" spans="1:47">
+      <c r="A123">
+        <v>55.5</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>1</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>1</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>1</v>
+      </c>
+      <c r="AF123">
+        <v>0</v>
+      </c>
+      <c r="AG123">
+        <v>0</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>0</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AP123">
+        <v>0</v>
+      </c>
+      <c r="AQ123">
+        <v>0</v>
+      </c>
+      <c r="AR123">
+        <v>0</v>
+      </c>
+      <c r="AS123">
+        <v>0</v>
+      </c>
+      <c r="AT123">
+        <v>0</v>
+      </c>
+      <c r="AU123">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="124" spans="1:47">
+      <c r="A124">
+        <v>65</v>
+      </c>
+      <c r="B124">
+        <v>2.5</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>1</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>1</v>
+      </c>
+      <c r="AE124">
+        <v>0</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>0</v>
+      </c>
+      <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <v>0</v>
+      </c>
+      <c r="AP124">
+        <v>0</v>
+      </c>
+      <c r="AQ124">
+        <v>0</v>
+      </c>
+      <c r="AR124">
+        <v>0</v>
+      </c>
+      <c r="AS124">
+        <v>0</v>
+      </c>
+      <c r="AT124">
+        <v>0</v>
+      </c>
+      <c r="AU124">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="125" spans="1:47">
+      <c r="A125">
+        <v>72.94</v>
+      </c>
+      <c r="B125">
+        <v>2.5</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>1</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>1</v>
+      </c>
+      <c r="W125">
+        <v>1</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>1</v>
+      </c>
+      <c r="AF125">
+        <v>0</v>
+      </c>
+      <c r="AG125">
+        <v>0</v>
+      </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>0</v>
+      </c>
+      <c r="AO125">
+        <v>0</v>
+      </c>
+      <c r="AP125">
+        <v>0</v>
+      </c>
+      <c r="AQ125">
+        <v>0</v>
+      </c>
+      <c r="AR125">
+        <v>0</v>
+      </c>
+      <c r="AS125">
+        <v>0</v>
+      </c>
+      <c r="AT125">
+        <v>0</v>
+      </c>
+      <c r="AU125">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="126" spans="1:47">
+      <c r="A126">
+        <v>58</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>1</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>1</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AP126">
+        <v>0</v>
+      </c>
+      <c r="AQ126">
+        <v>0</v>
+      </c>
+      <c r="AR126">
+        <v>0</v>
+      </c>
+      <c r="AS126">
+        <v>0</v>
+      </c>
+      <c r="AT126">
+        <v>0</v>
+      </c>
+      <c r="AU126">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="127" spans="1:47">
+      <c r="A127">
+        <v>47</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>1</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>1</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>0</v>
+      </c>
+      <c r="AO127">
+        <v>0</v>
+      </c>
+      <c r="AP127">
+        <v>0</v>
+      </c>
+      <c r="AQ127">
+        <v>0</v>
+      </c>
+      <c r="AR127">
+        <v>0</v>
+      </c>
+      <c r="AS127">
+        <v>0</v>
+      </c>
+      <c r="AT127">
+        <v>0</v>
+      </c>
+      <c r="AU127">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="128" spans="1:47">
+      <c r="A128">
+        <v>60</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <v>0</v>
+      </c>
+      <c r="AD128">
+        <v>1</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>0</v>
+      </c>
+      <c r="AO128">
+        <v>0</v>
+      </c>
+      <c r="AP128">
+        <v>0</v>
+      </c>
+      <c r="AQ128">
+        <v>0</v>
+      </c>
+      <c r="AR128">
+        <v>0</v>
+      </c>
+      <c r="AS128">
+        <v>0</v>
+      </c>
+      <c r="AT128">
+        <v>0</v>
+      </c>
+      <c r="AU128">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:47">
+      <c r="A129">
+        <v>102.34</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129">
+        <v>1</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>1</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>1</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
+      <c r="AD129">
+        <v>0</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>0</v>
+      </c>
+      <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>0</v>
+      </c>
+      <c r="AO129">
+        <v>0</v>
+      </c>
+      <c r="AP129">
+        <v>0</v>
+      </c>
+      <c r="AQ129">
+        <v>0</v>
+      </c>
+      <c r="AR129">
+        <v>0</v>
+      </c>
+      <c r="AS129">
+        <v>0</v>
+      </c>
+      <c r="AT129">
+        <v>0</v>
+      </c>
+      <c r="AU129">
+        <v>1483.93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:47">
+      <c r="A130">
+        <v>225.09</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>1</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>1</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>1</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
+      <c r="AD130">
+        <v>1</v>
+      </c>
+      <c r="AE130">
+        <v>0</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>0</v>
+      </c>
+      <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>0</v>
+      </c>
+      <c r="AO130">
+        <v>0</v>
+      </c>
+      <c r="AP130">
+        <v>0</v>
+      </c>
+      <c r="AQ130">
+        <v>0</v>
+      </c>
+      <c r="AR130">
+        <v>0</v>
+      </c>
+      <c r="AS130">
+        <v>0</v>
+      </c>
+      <c r="AT130">
+        <v>0</v>
+      </c>
+      <c r="AU130">
+        <v>3601.44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:47">
+      <c r="A131">
+        <v>218.16</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>1</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>1</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>1</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>0</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>0</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AP131">
+        <v>0</v>
+      </c>
+      <c r="AQ131">
+        <v>0</v>
+      </c>
+      <c r="AR131">
+        <v>0</v>
+      </c>
+      <c r="AS131">
+        <v>0</v>
+      </c>
+      <c r="AT131">
+        <v>0</v>
+      </c>
+      <c r="AU131">
+        <v>3163.32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:47">
+      <c r="A132">
+        <v>21</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>1</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>1</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AP132">
+        <v>0</v>
+      </c>
+      <c r="AQ132">
+        <v>0</v>
+      </c>
+      <c r="AR132">
+        <v>0</v>
+      </c>
+      <c r="AS132">
+        <v>0</v>
+      </c>
+      <c r="AT132">
+        <v>0</v>
+      </c>
+      <c r="AU132">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="133" spans="1:47">
+      <c r="A133">
         <v>178.29</v>
       </c>
-      <c r="B120">
+      <c r="B133">
         <v>5</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>1</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <v>1</v>
-      </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-      <c r="P120">
-        <v>1</v>
-      </c>
-      <c r="Q120">
-        <v>1</v>
-      </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
-      <c r="S120">
-        <v>1</v>
-      </c>
-      <c r="T120">
-        <v>1</v>
-      </c>
-      <c r="U120">
-        <v>1</v>
-      </c>
-      <c r="V120">
-        <v>0</v>
-      </c>
-      <c r="W120">
-        <v>1</v>
-      </c>
-      <c r="X120">
-        <v>0</v>
-      </c>
-      <c r="Y120">
-        <v>0</v>
-      </c>
-      <c r="Z120">
-        <v>0</v>
-      </c>
-      <c r="AA120">
-        <v>0</v>
-      </c>
-      <c r="AB120">
-        <v>0</v>
-      </c>
-      <c r="AC120">
-        <v>0</v>
-      </c>
-      <c r="AD120">
-        <v>1</v>
-      </c>
-      <c r="AE120">
-        <v>0</v>
-      </c>
-      <c r="AF120">
-        <v>0</v>
-      </c>
-      <c r="AG120">
-        <v>0</v>
-      </c>
-      <c r="AH120">
-        <v>0</v>
-      </c>
-      <c r="AI120">
-        <v>0</v>
-      </c>
-      <c r="AJ120">
-        <v>0</v>
-      </c>
-      <c r="AK120">
-        <v>0</v>
-      </c>
-      <c r="AL120">
-        <v>0</v>
-      </c>
-      <c r="AM120">
-        <v>0</v>
-      </c>
-      <c r="AN120">
-        <v>0</v>
-      </c>
-      <c r="AO120">
-        <v>0</v>
-      </c>
-      <c r="AP120">
-        <v>0</v>
-      </c>
-      <c r="AQ120">
-        <v>0</v>
-      </c>
-      <c r="AR120">
-        <v>0</v>
-      </c>
-      <c r="AS120">
-        <v>0</v>
-      </c>
-      <c r="AT120">
-        <v>0</v>
-      </c>
-      <c r="AU120">
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>1</v>
+      </c>
+      <c r="T133">
+        <v>1</v>
+      </c>
+      <c r="U133">
+        <v>1</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>1</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>1</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>0</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AP133">
+        <v>0</v>
+      </c>
+      <c r="AQ133">
+        <v>0</v>
+      </c>
+      <c r="AR133">
+        <v>0</v>
+      </c>
+      <c r="AS133">
+        <v>0</v>
+      </c>
+      <c r="AT133">
+        <v>0</v>
+      </c>
+      <c r="AU133">
         <v>3030.93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:47">
+      <c r="A134">
+        <v>26</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>1</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
+      <c r="AC134">
+        <v>0</v>
+      </c>
+      <c r="AD134">
+        <v>0</v>
+      </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
+      <c r="AH134">
+        <v>0</v>
+      </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
+      <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>0</v>
+      </c>
+      <c r="AO134">
+        <v>0</v>
+      </c>
+      <c r="AP134">
+        <v>0</v>
+      </c>
+      <c r="AQ134">
+        <v>0</v>
+      </c>
+      <c r="AR134">
+        <v>0</v>
+      </c>
+      <c r="AS134">
+        <v>0</v>
+      </c>
+      <c r="AT134">
+        <v>0</v>
+      </c>
+      <c r="AU134">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="135" spans="1:47">
+      <c r="A135">
+        <v>123.98</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>1</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>1</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>1</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>0</v>
+      </c>
+      <c r="AD135">
+        <v>1</v>
+      </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
+      <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>0</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AP135">
+        <v>0</v>
+      </c>
+      <c r="AQ135">
+        <v>0</v>
+      </c>
+      <c r="AR135">
+        <v>0</v>
+      </c>
+      <c r="AS135">
+        <v>0</v>
+      </c>
+      <c r="AT135">
+        <v>0</v>
+      </c>
+      <c r="AU135">
+        <v>1797.71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:47">
+      <c r="A136">
+        <v>37</v>
+      </c>
+      <c r="B136">
+        <v>1.5</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>1</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <v>0</v>
+      </c>
+      <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
+        <v>0</v>
+      </c>
+      <c r="AE136">
+        <v>0</v>
+      </c>
+      <c r="AF136">
+        <v>0</v>
+      </c>
+      <c r="AG136">
+        <v>0</v>
+      </c>
+      <c r="AH136">
+        <v>0</v>
+      </c>
+      <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>0</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>0</v>
+      </c>
+      <c r="AO136">
+        <v>0</v>
+      </c>
+      <c r="AP136">
+        <v>0</v>
+      </c>
+      <c r="AQ136">
+        <v>0</v>
+      </c>
+      <c r="AR136">
+        <v>0</v>
+      </c>
+      <c r="AS136">
+        <v>0</v>
+      </c>
+      <c r="AT136">
+        <v>0</v>
+      </c>
+      <c r="AU136">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="137" spans="1:47">
+      <c r="A137">
+        <v>123.36</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>1</v>
+      </c>
+      <c r="U137">
+        <v>1</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>1</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+      <c r="AC137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
+        <v>0</v>
+      </c>
+      <c r="AE137">
+        <v>1</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AP137">
+        <v>0</v>
+      </c>
+      <c r="AQ137">
+        <v>0</v>
+      </c>
+      <c r="AR137">
+        <v>0</v>
+      </c>
+      <c r="AS137">
+        <v>0</v>
+      </c>
+      <c r="AT137">
+        <v>0</v>
+      </c>
+      <c r="AU137">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="138" spans="1:47">
+      <c r="A138">
+        <v>36</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>1</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>1</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>0</v>
+      </c>
+      <c r="AD138">
+        <v>0</v>
+      </c>
+      <c r="AE138">
+        <v>0</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+      <c r="AH138">
+        <v>0</v>
+      </c>
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>0</v>
+      </c>
+      <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>0</v>
+      </c>
+      <c r="AO138">
+        <v>0</v>
+      </c>
+      <c r="AP138">
+        <v>0</v>
+      </c>
+      <c r="AQ138">
+        <v>0</v>
+      </c>
+      <c r="AR138">
+        <v>0</v>
+      </c>
+      <c r="AS138">
+        <v>0</v>
+      </c>
+      <c r="AT138">
+        <v>0</v>
+      </c>
+      <c r="AU138">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/immowelt_price_guide/data/train_recent_add.xlsx
+++ b/immowelt_price_guide/data/train_recent_add.xlsx
@@ -16107,7 +16107,7 @@
     </row>
     <row r="110" spans="1:47">
       <c r="A110">
-        <v>59.68</v>
+        <v>49.95</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -16134,13 +16134,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -16245,12 +16245,12 @@
         <v>0</v>
       </c>
       <c r="AU110">
-        <v>566.96</v>
+        <v>474.53</v>
       </c>
     </row>
     <row r="111" spans="1:47">
       <c r="A111">
-        <v>58.42</v>
+        <v>56.02</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -16277,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -16388,12 +16388,12 @@
         <v>0</v>
       </c>
       <c r="AU111">
-        <v>554.99</v>
+        <v>532.1900000000001</v>
       </c>
     </row>
     <row r="112" spans="1:47">
       <c r="A112">
-        <v>70.87</v>
+        <v>59.68</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -16411,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -16426,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -16531,15 +16531,15 @@
         <v>0</v>
       </c>
       <c r="AU112">
-        <v>1181.21</v>
+        <v>566.96</v>
       </c>
     </row>
     <row r="113" spans="1:47">
       <c r="A113">
-        <v>81.31999999999999</v>
+        <v>58.42</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -16674,7 +16674,7 @@
         <v>0</v>
       </c>
       <c r="AU113">
-        <v>1183.37</v>
+        <v>554.99</v>
       </c>
     </row>
     <row r="114" spans="1:47">
@@ -16822,7 +16822,7 @@
     </row>
     <row r="115" spans="1:47">
       <c r="A115">
-        <v>56.02</v>
+        <v>70.87</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -16840,7 +16840,7 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -16849,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -16960,15 +16960,15 @@
         <v>0</v>
       </c>
       <c r="AU115">
-        <v>532.1900000000001</v>
+        <v>1181.21</v>
       </c>
     </row>
     <row r="116" spans="1:47">
       <c r="A116">
-        <v>49.95</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -16992,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -17103,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="AU116">
-        <v>474.53</v>
+        <v>1183.37</v>
       </c>
     </row>
     <row r="117" spans="1:47">
@@ -17251,10 +17251,10 @@
     </row>
     <row r="118" spans="1:47">
       <c r="A118">
-        <v>123.36</v>
+        <v>195</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -17269,25 +17269,25 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>0</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -17302,19 +17302,19 @@
         <v>1</v>
       </c>
       <c r="R118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S118">
         <v>0</v>
       </c>
       <c r="T118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W118">
         <v>1</v>
@@ -17341,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="AE118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="AH118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI118">
         <v>0</v>
@@ -17389,24 +17389,24 @@
         <v>0</v>
       </c>
       <c r="AU118">
-        <v>1720</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="119" spans="1:47">
       <c r="A119">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B119">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -17415,7 +17415,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -17427,22 +17427,22 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119">
         <v>0</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -17454,10 +17454,10 @@
         <v>0</v>
       </c>
       <c r="U119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W119">
         <v>1</v>
@@ -17484,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="AE119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF119">
         <v>0</v>
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="AM119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN119">
         <v>0</v>
@@ -17532,15 +17532,15 @@
         <v>0</v>
       </c>
       <c r="AU119">
-        <v>1290</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="120" spans="1:47">
       <c r="A120">
-        <v>103</v>
+        <v>123.36</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -17558,19 +17558,19 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120">
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -17579,28 +17579,28 @@
         <v>0</v>
       </c>
       <c r="O120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
         <v>1</v>
       </c>
       <c r="R120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120">
         <v>0</v>
       </c>
       <c r="T120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W120">
         <v>1</v>
@@ -17675,48 +17675,48 @@
         <v>0</v>
       </c>
       <c r="AU120">
-        <v>1100</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="121" spans="1:47">
       <c r="A121">
-        <v>195</v>
+        <v>153.3</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121">
         <v>0</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -17731,19 +17731,19 @@
         <v>1</v>
       </c>
       <c r="R121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S121">
         <v>0</v>
       </c>
       <c r="T121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U121">
         <v>0</v>
       </c>
       <c r="V121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W121">
         <v>1</v>
@@ -17752,7 +17752,7 @@
         <v>0</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z121">
         <v>0</v>
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="AH121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI121">
         <v>0</v>
@@ -17818,15 +17818,15 @@
         <v>0</v>
       </c>
       <c r="AU121">
-        <v>2880</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="122" spans="1:47">
       <c r="A122">
-        <v>153.3</v>
+        <v>93</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -17835,22 +17835,22 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -17859,7 +17859,7 @@
         <v>1</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -17871,19 +17871,19 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S122">
         <v>0</v>
       </c>
       <c r="T122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V122">
         <v>0</v>
@@ -17895,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="Y122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z122">
         <v>0</v>
@@ -17937,7 +17937,7 @@
         <v>0</v>
       </c>
       <c r="AM122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN122">
         <v>0</v>
@@ -17961,7 +17961,7 @@
         <v>0</v>
       </c>
       <c r="AU122">
-        <v>1700</v>
+        <v>1290</v>
       </c>
     </row>
   </sheetData>

--- a/immowelt_price_guide/data/train_recent_add.xlsx
+++ b/immowelt_price_guide/data/train_recent_add.xlsx
@@ -16107,7 +16107,7 @@
     </row>
     <row r="110" spans="1:47">
       <c r="A110">
-        <v>49.95</v>
+        <v>59.68</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -16134,13 +16134,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -16245,21 +16245,21 @@
         <v>0</v>
       </c>
       <c r="AU110">
-        <v>474.53</v>
+        <v>566.96</v>
       </c>
     </row>
     <row r="111" spans="1:47">
       <c r="A111">
-        <v>56.02</v>
+        <v>79</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -16268,7 +16268,7 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -16298,7 +16298,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -16316,16 +16316,16 @@
         <v>0</v>
       </c>
       <c r="W111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X111">
         <v>0</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
         <v>0</v>
@@ -16388,15 +16388,15 @@
         <v>0</v>
       </c>
       <c r="AU111">
-        <v>532.1900000000001</v>
+        <v>950</v>
       </c>
     </row>
     <row r="112" spans="1:47">
       <c r="A112">
-        <v>59.68</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -16411,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -16426,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -16531,12 +16531,12 @@
         <v>0</v>
       </c>
       <c r="AU112">
-        <v>566.96</v>
+        <v>1183.37</v>
       </c>
     </row>
     <row r="113" spans="1:47">
       <c r="A113">
-        <v>58.42</v>
+        <v>49.95</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -16563,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -16674,21 +16674,21 @@
         <v>0</v>
       </c>
       <c r="AU113">
-        <v>554.99</v>
+        <v>474.53</v>
       </c>
     </row>
     <row r="114" spans="1:47">
       <c r="A114">
-        <v>79</v>
+        <v>56.02</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -16697,7 +16697,7 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -16712,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -16727,7 +16727,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -16745,16 +16745,16 @@
         <v>0</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X114">
         <v>0</v>
       </c>
       <c r="Y114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA114">
         <v>0</v>
@@ -16817,18 +16817,18 @@
         <v>0</v>
       </c>
       <c r="AU114">
-        <v>950</v>
+        <v>532.1900000000001</v>
       </c>
     </row>
     <row r="115" spans="1:47">
       <c r="A115">
-        <v>70.87</v>
+        <v>65</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -16849,13 +16849,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>0</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -16864,16 +16864,16 @@
         <v>0</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -16888,7 +16888,7 @@
         <v>0</v>
       </c>
       <c r="W115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X115">
         <v>0</v>
@@ -16897,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
         <v>0</v>
@@ -16909,7 +16909,7 @@
         <v>0</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE115">
         <v>0</v>
@@ -16960,15 +16960,15 @@
         <v>0</v>
       </c>
       <c r="AU115">
-        <v>1181.21</v>
+        <v>750</v>
       </c>
     </row>
     <row r="116" spans="1:47">
       <c r="A116">
-        <v>81.31999999999999</v>
+        <v>70.87</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -17103,21 +17103,21 @@
         <v>0</v>
       </c>
       <c r="AU116">
-        <v>1183.37</v>
+        <v>1181.21</v>
       </c>
     </row>
     <row r="117" spans="1:47">
       <c r="A117">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B117">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="R117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -17171,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="V117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W117">
         <v>1</v>
@@ -17195,10 +17195,10 @@
         <v>0</v>
       </c>
       <c r="AD117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -17246,24 +17246,24 @@
         <v>0</v>
       </c>
       <c r="AU117">
-        <v>750</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="118" spans="1:47">
       <c r="A118">
-        <v>195</v>
+        <v>58.42</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -17272,22 +17272,22 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118">
         <v>0</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -17296,10 +17296,10 @@
         <v>0</v>
       </c>
       <c r="P118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R118">
         <v>0</v>
@@ -17314,10 +17314,10 @@
         <v>0</v>
       </c>
       <c r="V118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X118">
         <v>0</v>
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA118">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="AH118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI118">
         <v>0</v>
@@ -17389,15 +17389,15 @@
         <v>0</v>
       </c>
       <c r="AU118">
-        <v>2880</v>
+        <v>554.99</v>
       </c>
     </row>
     <row r="119" spans="1:47">
       <c r="A119">
-        <v>103</v>
+        <v>123.36</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -17406,7 +17406,7 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -17415,19 +17415,19 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119">
         <v>0</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -17436,28 +17436,28 @@
         <v>0</v>
       </c>
       <c r="O119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
         <v>1</v>
       </c>
       <c r="R119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119">
         <v>0</v>
       </c>
       <c r="T119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W119">
         <v>1</v>
@@ -17532,15 +17532,15 @@
         <v>0</v>
       </c>
       <c r="AU119">
-        <v>1100</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="120" spans="1:47">
       <c r="A120">
-        <v>123.36</v>
+        <v>195</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -17555,25 +17555,25 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120">
         <v>0</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -17588,19 +17588,19 @@
         <v>1</v>
       </c>
       <c r="R120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S120">
         <v>0</v>
       </c>
       <c r="T120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W120">
         <v>1</v>
@@ -17627,7 +17627,7 @@
         <v>0</v>
       </c>
       <c r="AE120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -17636,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="AH120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI120">
         <v>0</v>
@@ -17675,15 +17675,15 @@
         <v>0</v>
       </c>
       <c r="AU120">
-        <v>1720</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="121" spans="1:47">
       <c r="A121">
-        <v>153.3</v>
+        <v>93</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -17692,22 +17692,22 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -17716,7 +17716,7 @@
         <v>1</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -17728,19 +17728,19 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S121">
         <v>0</v>
       </c>
       <c r="T121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V121">
         <v>0</v>
@@ -17752,7 +17752,7 @@
         <v>0</v>
       </c>
       <c r="Y121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z121">
         <v>0</v>
@@ -17794,7 +17794,7 @@
         <v>0</v>
       </c>
       <c r="AM121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN121">
         <v>0</v>
@@ -17818,15 +17818,15 @@
         <v>0</v>
       </c>
       <c r="AU121">
-        <v>1700</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="122" spans="1:47">
       <c r="A122">
-        <v>93</v>
+        <v>153.3</v>
       </c>
       <c r="B122">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -17835,22 +17835,22 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -17859,7 +17859,7 @@
         <v>1</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -17871,19 +17871,19 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122">
         <v>0</v>
       </c>
       <c r="T122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V122">
         <v>0</v>
@@ -17895,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z122">
         <v>0</v>
@@ -17937,7 +17937,7 @@
         <v>0</v>
       </c>
       <c r="AM122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN122">
         <v>0</v>
@@ -17961,7 +17961,7 @@
         <v>0</v>
       </c>
       <c r="AU122">
-        <v>1290</v>
+        <v>1700</v>
       </c>
     </row>
   </sheetData>

--- a/immowelt_price_guide/data/train_recent_add.xlsx
+++ b/immowelt_price_guide/data/train_recent_add.xlsx
@@ -16107,7 +16107,7 @@
     </row>
     <row r="110" spans="1:47">
       <c r="A110">
-        <v>59.68</v>
+        <v>58.42</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -16140,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -16245,21 +16245,21 @@
         <v>0</v>
       </c>
       <c r="AU110">
-        <v>566.96</v>
+        <v>554.99</v>
       </c>
     </row>
     <row r="111" spans="1:47">
       <c r="A111">
-        <v>79</v>
+        <v>56.02</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -16268,7 +16268,7 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -16298,7 +16298,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -16316,16 +16316,16 @@
         <v>0</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X111">
         <v>0</v>
       </c>
       <c r="Y111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA111">
         <v>0</v>
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="AU111">
-        <v>950</v>
+        <v>532.1900000000001</v>
       </c>
     </row>
     <row r="112" spans="1:47">
@@ -16536,16 +16536,16 @@
     </row>
     <row r="113" spans="1:47">
       <c r="A113">
-        <v>49.95</v>
+        <v>79</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -16569,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -16602,16 +16602,16 @@
         <v>0</v>
       </c>
       <c r="W113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X113">
         <v>0</v>
       </c>
       <c r="Y113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
         <v>0</v>
@@ -16674,12 +16674,12 @@
         <v>0</v>
       </c>
       <c r="AU113">
-        <v>474.53</v>
+        <v>950</v>
       </c>
     </row>
     <row r="114" spans="1:47">
       <c r="A114">
-        <v>56.02</v>
+        <v>49.95</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -16817,18 +16817,18 @@
         <v>0</v>
       </c>
       <c r="AU114">
-        <v>532.1900000000001</v>
+        <v>474.53</v>
       </c>
     </row>
     <row r="115" spans="1:47">
       <c r="A115">
-        <v>65</v>
+        <v>70.87</v>
       </c>
       <c r="B115">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -16849,13 +16849,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
         <v>0</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -16864,16 +16864,16 @@
         <v>0</v>
       </c>
       <c r="O115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -16888,7 +16888,7 @@
         <v>0</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X115">
         <v>0</v>
@@ -16897,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA115">
         <v>0</v>
@@ -16909,7 +16909,7 @@
         <v>0</v>
       </c>
       <c r="AD115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE115">
         <v>0</v>
@@ -16960,12 +16960,12 @@
         <v>0</v>
       </c>
       <c r="AU115">
-        <v>750</v>
+        <v>1181.21</v>
       </c>
     </row>
     <row r="116" spans="1:47">
       <c r="A116">
-        <v>70.87</v>
+        <v>59.68</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -17103,15 +17103,15 @@
         <v>0</v>
       </c>
       <c r="AU116">
-        <v>1181.21</v>
+        <v>566.96</v>
       </c>
     </row>
     <row r="117" spans="1:47">
       <c r="A117">
-        <v>103</v>
+        <v>123.36</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -17120,7 +17120,7 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -17129,19 +17129,19 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117">
         <v>0</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -17150,28 +17150,28 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
         <v>1</v>
       </c>
       <c r="R117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S117">
         <v>0</v>
       </c>
       <c r="T117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W117">
         <v>1</v>
@@ -17246,21 +17246,21 @@
         <v>0</v>
       </c>
       <c r="AU117">
-        <v>1100</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="118" spans="1:47">
       <c r="A118">
-        <v>58.42</v>
+        <v>103</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -17278,13 +17278,13 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>0</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -17293,13 +17293,13 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118">
         <v>0</v>
@@ -17314,10 +17314,10 @@
         <v>0</v>
       </c>
       <c r="V118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X118">
         <v>0</v>
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
         <v>0</v>
@@ -17341,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="AE118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -17389,24 +17389,24 @@
         <v>0</v>
       </c>
       <c r="AU118">
-        <v>554.99</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="119" spans="1:47">
       <c r="A119">
-        <v>123.36</v>
+        <v>65</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -17415,19 +17415,19 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119">
         <v>0</v>
       </c>
       <c r="L119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -17436,10 +17436,10 @@
         <v>0</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
         <v>1</v>
@@ -17451,10 +17451,10 @@
         <v>0</v>
       </c>
       <c r="T119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V119">
         <v>0</v>
@@ -17481,10 +17481,10 @@
         <v>0</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF119">
         <v>0</v>
@@ -17532,7 +17532,7 @@
         <v>0</v>
       </c>
       <c r="AU119">
-        <v>1720</v>
+        <v>750</v>
       </c>
     </row>
     <row r="120" spans="1:47">

--- a/immowelt_price_guide/data/train_recent_add.xlsx
+++ b/immowelt_price_guide/data/train_recent_add.xlsx
@@ -512,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU122"/>
+  <dimension ref="A1:AU136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16107,10 +16107,10 @@
     </row>
     <row r="110" spans="1:47">
       <c r="A110">
-        <v>58.42</v>
+        <v>89.58</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -16134,28 +16134,28 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110">
         <v>0</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -16164,10 +16164,10 @@
         <v>0</v>
       </c>
       <c r="T110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V110">
         <v>0</v>
@@ -16245,12 +16245,12 @@
         <v>0</v>
       </c>
       <c r="AU110">
-        <v>554.99</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="111" spans="1:47">
       <c r="A111">
-        <v>56.02</v>
+        <v>90.33</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -16283,10 +16283,10 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -16295,10 +16295,10 @@
         <v>0</v>
       </c>
       <c r="P111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -16307,10 +16307,10 @@
         <v>0</v>
       </c>
       <c r="T111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V111">
         <v>0</v>
@@ -16388,12 +16388,12 @@
         <v>0</v>
       </c>
       <c r="AU111">
-        <v>532.1900000000001</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="112" spans="1:47">
       <c r="A112">
-        <v>81.31999999999999</v>
+        <v>80</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -16402,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -16411,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -16420,13 +16420,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
         <v>0</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="T112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U112">
         <v>0</v>
@@ -16459,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="W112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X112">
         <v>0</v>
@@ -16468,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
         <v>0</v>
@@ -16477,7 +16477,7 @@
         <v>0</v>
       </c>
       <c r="AC112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD112">
         <v>0</v>
@@ -16531,27 +16531,27 @@
         <v>0</v>
       </c>
       <c r="AU112">
-        <v>1183.37</v>
+        <v>850</v>
       </c>
     </row>
     <row r="113" spans="1:47">
       <c r="A113">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B113">
         <v>3</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -16560,16 +16560,16 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <v>0</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -16581,19 +16581,19 @@
         <v>0</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113">
         <v>0</v>
       </c>
       <c r="S113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U113">
         <v>0</v>
@@ -16608,10 +16608,10 @@
         <v>0</v>
       </c>
       <c r="Y113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA113">
         <v>0</v>
@@ -16674,12 +16674,12 @@
         <v>0</v>
       </c>
       <c r="AU113">
-        <v>950</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="114" spans="1:47">
       <c r="A114">
-        <v>49.95</v>
+        <v>40</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -16697,7 +16697,7 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -16751,10 +16751,10 @@
         <v>0</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
         <v>0</v>
@@ -16817,30 +16817,30 @@
         <v>0</v>
       </c>
       <c r="AU114">
-        <v>474.53</v>
+        <v>890</v>
       </c>
     </row>
     <row r="115" spans="1:47">
       <c r="A115">
-        <v>70.87</v>
+        <v>94.45</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -16849,19 +16849,19 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>0</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -16870,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -16879,10 +16879,10 @@
         <v>0</v>
       </c>
       <c r="T115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V115">
         <v>0</v>
@@ -16960,12 +16960,12 @@
         <v>0</v>
       </c>
       <c r="AU115">
-        <v>1181.21</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="116" spans="1:47">
       <c r="A116">
-        <v>59.68</v>
+        <v>108</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -16983,16 +16983,16 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -17010,13 +17010,13 @@
         <v>0</v>
       </c>
       <c r="P116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -17028,10 +17028,10 @@
         <v>0</v>
       </c>
       <c r="V116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X116">
         <v>0</v>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
         <v>0</v>
@@ -17052,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="AD116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE116">
         <v>0</v>
@@ -17103,24 +17103,24 @@
         <v>0</v>
       </c>
       <c r="AU116">
-        <v>566.96</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="117" spans="1:47">
       <c r="A117">
-        <v>123.36</v>
+        <v>68</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -17129,25 +17129,25 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
       </c>
       <c r="L117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M117">
         <v>0</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -17156,16 +17156,16 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117">
         <v>0</v>
       </c>
       <c r="T117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U117">
         <v>1</v>
@@ -17192,13 +17192,13 @@
         <v>0</v>
       </c>
       <c r="AC117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD117">
         <v>0</v>
       </c>
       <c r="AE117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -17246,21 +17246,21 @@
         <v>0</v>
       </c>
       <c r="AU117">
-        <v>1720</v>
+        <v>750</v>
       </c>
     </row>
     <row r="118" spans="1:47">
       <c r="A118">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -17269,13 +17269,13 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -17296,16 +17296,16 @@
         <v>1</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118">
         <v>1</v>
       </c>
       <c r="R118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T118">
         <v>0</v>
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
       <c r="V118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W118">
         <v>1</v>
@@ -17341,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="AE118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="AH118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI118">
         <v>0</v>
@@ -17389,21 +17389,21 @@
         <v>0</v>
       </c>
       <c r="AU118">
-        <v>1100</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="119" spans="1:47">
       <c r="A119">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -17412,7 +17412,7 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -17421,7 +17421,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -17430,16 +17430,16 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119">
         <v>0</v>
       </c>
       <c r="O119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
         <v>1</v>
@@ -17451,13 +17451,13 @@
         <v>0</v>
       </c>
       <c r="T119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U119">
         <v>0</v>
       </c>
       <c r="V119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W119">
         <v>1</v>
@@ -17475,13 +17475,13 @@
         <v>0</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC119">
         <v>0</v>
       </c>
       <c r="AD119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE119">
         <v>0</v>
@@ -17532,15 +17532,15 @@
         <v>0</v>
       </c>
       <c r="AU119">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="120" spans="1:47">
       <c r="A120">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -17549,16 +17549,16 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -17573,22 +17573,22 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120">
         <v>0</v>
       </c>
       <c r="P120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
         <v>1</v>
       </c>
       <c r="R120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -17600,7 +17600,7 @@
         <v>0</v>
       </c>
       <c r="V120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W120">
         <v>1</v>
@@ -17618,7 +17618,7 @@
         <v>0</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -17636,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="AH120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI120">
         <v>0</v>
@@ -17675,24 +17675,24 @@
         <v>0</v>
       </c>
       <c r="AU120">
-        <v>2880</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="121" spans="1:47">
       <c r="A121">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B121">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -17701,7 +17701,7 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -17713,10 +17713,10 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -17725,10 +17725,10 @@
         <v>0</v>
       </c>
       <c r="P121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R121">
         <v>0</v>
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="U121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V121">
         <v>0</v>
@@ -17752,7 +17752,7 @@
         <v>0</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z121">
         <v>0</v>
@@ -17794,7 +17794,7 @@
         <v>0</v>
       </c>
       <c r="AM121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN121">
         <v>0</v>
@@ -17818,149 +17818,2151 @@
         <v>0</v>
       </c>
       <c r="AU121">
-        <v>1290</v>
+        <v>950</v>
       </c>
     </row>
     <row r="122" spans="1:47">
       <c r="A122">
+        <v>70</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>1</v>
+      </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
+      <c r="AQ122">
+        <v>0</v>
+      </c>
+      <c r="AR122">
+        <v>0</v>
+      </c>
+      <c r="AS122">
+        <v>0</v>
+      </c>
+      <c r="AT122">
+        <v>0</v>
+      </c>
+      <c r="AU122">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="123" spans="1:47">
+      <c r="A123">
+        <v>30.72</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>1</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>1</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+      <c r="AF123">
+        <v>0</v>
+      </c>
+      <c r="AG123">
+        <v>0</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>0</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AP123">
+        <v>0</v>
+      </c>
+      <c r="AQ123">
+        <v>0</v>
+      </c>
+      <c r="AR123">
+        <v>0</v>
+      </c>
+      <c r="AS123">
+        <v>0</v>
+      </c>
+      <c r="AT123">
+        <v>0</v>
+      </c>
+      <c r="AU123">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:47">
+      <c r="A124">
+        <v>72.94</v>
+      </c>
+      <c r="B124">
+        <v>2.5</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>1</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>1</v>
+      </c>
+      <c r="W124">
+        <v>1</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>1</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>0</v>
+      </c>
+      <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <v>0</v>
+      </c>
+      <c r="AP124">
+        <v>0</v>
+      </c>
+      <c r="AQ124">
+        <v>0</v>
+      </c>
+      <c r="AR124">
+        <v>0</v>
+      </c>
+      <c r="AS124">
+        <v>0</v>
+      </c>
+      <c r="AT124">
+        <v>0</v>
+      </c>
+      <c r="AU124">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="125" spans="1:47">
+      <c r="A125">
+        <v>81.31999999999999</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>1</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>0</v>
+      </c>
+      <c r="AF125">
+        <v>0</v>
+      </c>
+      <c r="AG125">
+        <v>0</v>
+      </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>0</v>
+      </c>
+      <c r="AO125">
+        <v>0</v>
+      </c>
+      <c r="AP125">
+        <v>0</v>
+      </c>
+      <c r="AQ125">
+        <v>0</v>
+      </c>
+      <c r="AR125">
+        <v>0</v>
+      </c>
+      <c r="AS125">
+        <v>0</v>
+      </c>
+      <c r="AT125">
+        <v>0</v>
+      </c>
+      <c r="AU125">
+        <v>1183.37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:47">
+      <c r="A126">
+        <v>56.02</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>1</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AP126">
+        <v>0</v>
+      </c>
+      <c r="AQ126">
+        <v>0</v>
+      </c>
+      <c r="AR126">
+        <v>0</v>
+      </c>
+      <c r="AS126">
+        <v>0</v>
+      </c>
+      <c r="AT126">
+        <v>0</v>
+      </c>
+      <c r="AU126">
+        <v>532.1900000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:47">
+      <c r="A127">
+        <v>49.95</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>1</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>0</v>
+      </c>
+      <c r="AO127">
+        <v>0</v>
+      </c>
+      <c r="AP127">
+        <v>0</v>
+      </c>
+      <c r="AQ127">
+        <v>0</v>
+      </c>
+      <c r="AR127">
+        <v>0</v>
+      </c>
+      <c r="AS127">
+        <v>0</v>
+      </c>
+      <c r="AT127">
+        <v>0</v>
+      </c>
+      <c r="AU127">
+        <v>474.53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:47">
+      <c r="A128">
+        <v>58.42</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>1</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <v>0</v>
+      </c>
+      <c r="AD128">
+        <v>0</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
+      </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>0</v>
+      </c>
+      <c r="AO128">
+        <v>0</v>
+      </c>
+      <c r="AP128">
+        <v>0</v>
+      </c>
+      <c r="AQ128">
+        <v>0</v>
+      </c>
+      <c r="AR128">
+        <v>0</v>
+      </c>
+      <c r="AS128">
+        <v>0</v>
+      </c>
+      <c r="AT128">
+        <v>0</v>
+      </c>
+      <c r="AU128">
+        <v>554.99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:47">
+      <c r="A129">
+        <v>70.87</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>1</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
+      <c r="AD129">
+        <v>0</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>0</v>
+      </c>
+      <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>0</v>
+      </c>
+      <c r="AO129">
+        <v>0</v>
+      </c>
+      <c r="AP129">
+        <v>0</v>
+      </c>
+      <c r="AQ129">
+        <v>0</v>
+      </c>
+      <c r="AR129">
+        <v>0</v>
+      </c>
+      <c r="AS129">
+        <v>0</v>
+      </c>
+      <c r="AT129">
+        <v>0</v>
+      </c>
+      <c r="AU129">
+        <v>1181.21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:47">
+      <c r="A130">
+        <v>65</v>
+      </c>
+      <c r="B130">
+        <v>2.5</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+      <c r="R130">
+        <v>1</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>1</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
+      <c r="AD130">
+        <v>1</v>
+      </c>
+      <c r="AE130">
+        <v>0</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>0</v>
+      </c>
+      <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>0</v>
+      </c>
+      <c r="AO130">
+        <v>0</v>
+      </c>
+      <c r="AP130">
+        <v>0</v>
+      </c>
+      <c r="AQ130">
+        <v>0</v>
+      </c>
+      <c r="AR130">
+        <v>0</v>
+      </c>
+      <c r="AS130">
+        <v>0</v>
+      </c>
+      <c r="AT130">
+        <v>0</v>
+      </c>
+      <c r="AU130">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="131" spans="1:47">
+      <c r="A131">
+        <v>123.36</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+      <c r="R131">
+        <v>1</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>1</v>
+      </c>
+      <c r="U131">
+        <v>1</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>1</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <v>1</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>0</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>0</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AP131">
+        <v>0</v>
+      </c>
+      <c r="AQ131">
+        <v>0</v>
+      </c>
+      <c r="AR131">
+        <v>0</v>
+      </c>
+      <c r="AS131">
+        <v>0</v>
+      </c>
+      <c r="AT131">
+        <v>0</v>
+      </c>
+      <c r="AU131">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="132" spans="1:47">
+      <c r="A132">
+        <v>59.68</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>1</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AP132">
+        <v>0</v>
+      </c>
+      <c r="AQ132">
+        <v>0</v>
+      </c>
+      <c r="AR132">
+        <v>0</v>
+      </c>
+      <c r="AS132">
+        <v>0</v>
+      </c>
+      <c r="AT132">
+        <v>0</v>
+      </c>
+      <c r="AU132">
+        <v>566.96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:47">
+      <c r="A133">
+        <v>195</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>1</v>
+      </c>
+      <c r="W133">
+        <v>1</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>0</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>1</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>0</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AP133">
+        <v>0</v>
+      </c>
+      <c r="AQ133">
+        <v>0</v>
+      </c>
+      <c r="AR133">
+        <v>0</v>
+      </c>
+      <c r="AS133">
+        <v>0</v>
+      </c>
+      <c r="AT133">
+        <v>0</v>
+      </c>
+      <c r="AU133">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="134" spans="1:47">
+      <c r="A134">
+        <v>93</v>
+      </c>
+      <c r="B134">
+        <v>3.5</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>1</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>1</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
+      <c r="AC134">
+        <v>0</v>
+      </c>
+      <c r="AD134">
+        <v>0</v>
+      </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
+      <c r="AH134">
+        <v>0</v>
+      </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
+      <c r="AM134">
+        <v>1</v>
+      </c>
+      <c r="AN134">
+        <v>0</v>
+      </c>
+      <c r="AO134">
+        <v>0</v>
+      </c>
+      <c r="AP134">
+        <v>0</v>
+      </c>
+      <c r="AQ134">
+        <v>0</v>
+      </c>
+      <c r="AR134">
+        <v>0</v>
+      </c>
+      <c r="AS134">
+        <v>0</v>
+      </c>
+      <c r="AT134">
+        <v>0</v>
+      </c>
+      <c r="AU134">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="135" spans="1:47">
+      <c r="A135">
+        <v>103</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>1</v>
+      </c>
+      <c r="W135">
+        <v>1</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>0</v>
+      </c>
+      <c r="AD135">
+        <v>0</v>
+      </c>
+      <c r="AE135">
+        <v>1</v>
+      </c>
+      <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>0</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AP135">
+        <v>0</v>
+      </c>
+      <c r="AQ135">
+        <v>0</v>
+      </c>
+      <c r="AR135">
+        <v>0</v>
+      </c>
+      <c r="AS135">
+        <v>0</v>
+      </c>
+      <c r="AT135">
+        <v>0</v>
+      </c>
+      <c r="AU135">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:47">
+      <c r="A136">
         <v>153.3</v>
       </c>
-      <c r="B122">
+      <c r="B136">
         <v>3</v>
       </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
-      <c r="J122">
-        <v>1</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>1</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-      <c r="P122">
-        <v>1</v>
-      </c>
-      <c r="Q122">
-        <v>1</v>
-      </c>
-      <c r="R122">
-        <v>1</v>
-      </c>
-      <c r="S122">
-        <v>0</v>
-      </c>
-      <c r="T122">
-        <v>1</v>
-      </c>
-      <c r="U122">
-        <v>0</v>
-      </c>
-      <c r="V122">
-        <v>0</v>
-      </c>
-      <c r="W122">
-        <v>1</v>
-      </c>
-      <c r="X122">
-        <v>0</v>
-      </c>
-      <c r="Y122">
-        <v>1</v>
-      </c>
-      <c r="Z122">
-        <v>0</v>
-      </c>
-      <c r="AA122">
-        <v>0</v>
-      </c>
-      <c r="AB122">
-        <v>0</v>
-      </c>
-      <c r="AC122">
-        <v>0</v>
-      </c>
-      <c r="AD122">
-        <v>0</v>
-      </c>
-      <c r="AE122">
-        <v>0</v>
-      </c>
-      <c r="AF122">
-        <v>0</v>
-      </c>
-      <c r="AG122">
-        <v>0</v>
-      </c>
-      <c r="AH122">
-        <v>0</v>
-      </c>
-      <c r="AI122">
-        <v>0</v>
-      </c>
-      <c r="AJ122">
-        <v>0</v>
-      </c>
-      <c r="AK122">
-        <v>0</v>
-      </c>
-      <c r="AL122">
-        <v>0</v>
-      </c>
-      <c r="AM122">
-        <v>0</v>
-      </c>
-      <c r="AN122">
-        <v>0</v>
-      </c>
-      <c r="AO122">
-        <v>0</v>
-      </c>
-      <c r="AP122">
-        <v>0</v>
-      </c>
-      <c r="AQ122">
-        <v>0</v>
-      </c>
-      <c r="AR122">
-        <v>0</v>
-      </c>
-      <c r="AS122">
-        <v>0</v>
-      </c>
-      <c r="AT122">
-        <v>0</v>
-      </c>
-      <c r="AU122">
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>1</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>1</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>1</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <v>0</v>
+      </c>
+      <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
+        <v>0</v>
+      </c>
+      <c r="AE136">
+        <v>0</v>
+      </c>
+      <c r="AF136">
+        <v>0</v>
+      </c>
+      <c r="AG136">
+        <v>0</v>
+      </c>
+      <c r="AH136">
+        <v>0</v>
+      </c>
+      <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>0</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>0</v>
+      </c>
+      <c r="AO136">
+        <v>0</v>
+      </c>
+      <c r="AP136">
+        <v>0</v>
+      </c>
+      <c r="AQ136">
+        <v>0</v>
+      </c>
+      <c r="AR136">
+        <v>0</v>
+      </c>
+      <c r="AS136">
+        <v>0</v>
+      </c>
+      <c r="AT136">
+        <v>0</v>
+      </c>
+      <c r="AU136">
         <v>1700</v>
       </c>
     </row>
